--- a/DATA_goal/Junction_Flooding_126.xlsx
+++ b/DATA_goal/Junction_Flooding_126.xlsx
@@ -457,15 +457,15 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>41558.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.98</v>
+        <v>1.3</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41.01</v>
+        <v>4.1</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.2</v>
+        <v>1.52</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>48.28</v>
+        <v>4.83</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.76</v>
+        <v>0.98</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.85</v>
+        <v>0.49</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>21.1</v>
+        <v>2.11</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>222.69</v>
+        <v>22.27</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>42.02</v>
+        <v>4.2</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.95</v>
+        <v>1.4</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.71</v>
+        <v>2.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.18</v>
+        <v>1.12</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.82</v>
+        <v>4.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41558.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.11</v>
+        <v>1.61</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>48.45</v>
+        <v>4.84</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.48</v>
+        <v>3.95</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.11</v>
+        <v>6.71</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.4</v>
+        <v>1.94</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.34</v>
+        <v>2.03</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.8</v>
+        <v>2.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>259.36</v>
+        <v>25.94</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49</v>
+        <v>4.9</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.71</v>
+        <v>3.27</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.05</v>
+        <v>1.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.8</v>
+        <v>3.28</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.03</v>
+        <v>1.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.2</v>
+        <v>2.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>60.99</v>
+        <v>6.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41558.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>17.23</v>
+        <v>1.72</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.99</v>
+        <v>2.9</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.15</v>
+        <v>0.41</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.49</v>
+        <v>0.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>87.7</v>
+        <v>8.77</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.65</v>
+        <v>1.77</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.43</v>
+        <v>1.34</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.58</v>
+        <v>2.66</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41558.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.01</v>
+        <v>1.3</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>38.6</v>
+        <v>3.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>31.55</v>
+        <v>3.16</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>52.24</v>
+        <v>5.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>16.3</v>
+        <v>1.63</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.74</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>204.4</v>
+        <v>20.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>38.84</v>
+        <v>3.88</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.84</v>
+        <v>1.28</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>26.04</v>
+        <v>2.6</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.65</v>
+        <v>1.37</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>25.55</v>
+        <v>2.55</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.1</v>
+        <v>1.01</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>16.21</v>
+        <v>1.62</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>47.21</v>
+        <v>4.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41558.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>22.87</v>
+        <v>2.29</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>49.7</v>
+        <v>4.97</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>40.79</v>
+        <v>4.08</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>69.17</v>
+        <v>6.92</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.32</v>
+        <v>1.23</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.26</v>
+        <v>1.83</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>19.96</v>
+        <v>2</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.04</v>
+        <v>2.1</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.75</v>
+        <v>0.57</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>17.9</v>
+        <v>1.79</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>25.49</v>
+        <v>2.55</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>265.08</v>
+        <v>26.51</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>50.04</v>
+        <v>5</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.52</v>
+        <v>1.65</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>33.68</v>
+        <v>3.37</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>33.77</v>
+        <v>3.38</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>12.92</v>
+        <v>1.29</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>62.79</v>
+        <v>6.28</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>20.65</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41558.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>11.68</v>
+        <v>1.17</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>34.46</v>
+        <v>3.45</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>28.22</v>
+        <v>2.82</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>50.56</v>
+        <v>5.06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>181.53</v>
+        <v>18.15</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>34.76</v>
+        <v>3.48</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>23.36</v>
+        <v>2.34</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>24.24</v>
+        <v>2.42</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>8.98</v>
+        <v>0.9</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.55</v>
+        <v>1.05</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>45.96</v>
+        <v>4.6</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41558.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>7.4</v>
+        <v>0.74</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>16.07</v>
+        <v>1.61</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>13.05</v>
+        <v>1.31</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>26.22</v>
+        <v>2.62</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>8.24</v>
+        <v>0.82</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>80.81999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>10.92</v>
+        <v>1.09</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>5.68</v>
+        <v>0.57</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>6.75</v>
+        <v>0.68</v>
       </c>
       <c r="AE8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="AF8" s="4" t="n">
-        <v>23.98</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>2.97</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41558.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.67</v>
+        <v>0.57</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>4.46</v>
-      </c>
       <c r="H9" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.29</v>
+        <v>0.63</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="R9" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="X9" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y9" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC9" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="S9" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.81</v>
-      </c>
       <c r="AD9" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>17.28</v>
+        <v>1.73</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.27</v>
+        <v>0.23</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41558.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>9.82</v>
+        <v>0.98</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>17.56</v>
+        <v>1.76</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>59.04</v>
+        <v>5.9</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>12.21</v>
+        <v>1.22</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>15.9</v>
+        <v>1.59</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>2.23</v>
+        <v>0.22</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>5.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_126.xlsx
+++ b/DATA_goal/Junction_Flooding_126.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44807.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.56</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.58</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.75</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T2" s="4" t="n">
-        <v>7.84</v>
+        <v>78.41</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.54</v>
+        <v>15.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44807.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.95</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.13</v>
+        <v>21.33</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.71</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.31</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44807.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.62</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.21</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.7</v>
+        <v>67.02</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.75</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44807.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.38</v>
+        <v>23.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.79</v>
+        <v>17.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.2</v>
+        <v>52.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.28</v>
+        <v>42.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.87</v>
+        <v>68.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.94</v>
+        <v>19.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.01</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.88</v>
+        <v>18.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.25</v>
+        <v>52.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.53</v>
+        <v>35.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.52</v>
+        <v>15.25</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.23</v>
+        <v>62.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_126.xlsx
+++ b/DATA_goal/Junction_Flooding_126.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,35 +445,35 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44807.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.21</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.56</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.53</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.49</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.58</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.24</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.75</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.62</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.14</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.88</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.41</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.37</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.29</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
         <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.03</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.9</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.61</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.26</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.3</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.8</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.74</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
@@ -759,79 +759,79 @@
         <v>44807.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.951</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.633</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.73</v>
+        <v>4.732</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.5</v>
+        <v>3.505</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.16</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.028</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.62</v>
+        <v>2.618</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.72</v>
+        <v>1.724</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.76</v>
+        <v>1.757</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.07</v>
+        <v>2.072</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.538</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.857</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.293</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>1.754</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.075</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>21.33</v>
+        <v>21.331</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.47</v>
+        <v>5.468</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.71</v>
+        <v>1.715</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.22</v>
+        <v>3.219</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.31</v>
+        <v>2.306</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.434</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.78</v>
+        <v>4.779</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>1.31</v>
@@ -840,22 +840,22 @@
         <v>1.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.58</v>
+        <v>2.576</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.638</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.31</v>
+        <v>8.305999999999999</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.362</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="4">
@@ -866,100 +866,100 @@
         <v>5.92</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.55</v>
+        <v>4.553</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.29</v>
+        <v>13.293</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.66</v>
+        <v>10.659</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.38</v>
+        <v>4.382</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>17.15</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.36</v>
+        <v>7.361</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.67</v>
+        <v>3.667</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.92</v>
+        <v>4.924</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.44</v>
+        <v>5.438</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.78</v>
+        <v>5.783</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.52</v>
+        <v>1.524</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.87</v>
+        <v>4.865</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.62</v>
+        <v>6.622</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.21</v>
+        <v>4.206</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.385</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.02</v>
+        <v>67.02200000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.54</v>
+        <v>13.541</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.49</v>
+        <v>4.492</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.75</v>
+        <v>8.752000000000001</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.09</v>
+        <v>5.093</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.69</v>
+        <v>8.686</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.86</v>
+        <v>3.864</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.96</v>
+        <v>3.959</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.78</v>
+        <v>4.775</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6</v>
+        <v>6.002</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.27</v>
+        <v>15.268</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.81</v>
+        <v>2.812</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.41</v>
+        <v>5.407</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>21.52</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44807.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_126.xlsx
+++ b/DATA_goal/Junction_Flooding_126.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,103 +967,207 @@
         <v>44807.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.76</v>
+        <v>23.764</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.93</v>
+        <v>17.931</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.05</v>
+        <v>52.049</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.76</v>
+        <v>42.762</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.49</v>
+        <v>18.485</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.69</v>
+        <v>68.69199999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.93</v>
+        <v>28.932</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.31</v>
+        <v>13.313</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.4</v>
+        <v>19.395</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.96</v>
+        <v>20.959</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.19</v>
+        <v>22.194</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.01</v>
+        <v>6.012</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.78</v>
+        <v>18.776</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.63</v>
+        <v>26.634</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.7</v>
+        <v>15.699</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.216</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.864</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.81</v>
+        <v>278.806</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.48</v>
+        <v>52.483</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.33</v>
+        <v>17.332</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.27</v>
+        <v>35.267</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.87</v>
+        <v>18.873</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.61</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.52</v>
+        <v>34.522</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.25</v>
+        <v>15.249</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.82</v>
+        <v>13.818</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.32</v>
+        <v>16.319</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.24</v>
+        <v>22.242</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.28</v>
+        <v>62.283</v>
       </c>
       <c r="AG5" s="4" t="n">
+        <v>10.072</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>21.521</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44807.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>10.07</v>
       </c>
-      <c r="AH5" s="4" t="n">
-        <v>21.52</v>
+      <c r="Q6" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.43</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>29.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.109999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_126.xlsx
+++ b/DATA_goal/Junction_Flooding_126.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
-    <col width="8" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -967,207 +967,103 @@
         <v>44807.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.764</v>
+        <v>23.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>17.931</v>
+        <v>17.93</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.712</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.049</v>
+        <v>52.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.762</v>
+        <v>42.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.485</v>
+        <v>18.49</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>68.69199999999999</v>
+        <v>68.69</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.932</v>
+        <v>28.93</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.313</v>
+        <v>13.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.395</v>
+        <v>19.4</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.959</v>
+        <v>20.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.194</v>
+        <v>22.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.012</v>
+        <v>6.01</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.776</v>
+        <v>18.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.634</v>
+        <v>26.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.699</v>
+        <v>15.7</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.864</v>
+        <v>0.86</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>278.806</v>
+        <v>278.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.483</v>
+        <v>52.48</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.332</v>
+        <v>17.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.267</v>
+        <v>35.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.873</v>
+        <v>18.87</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>2.61</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.522</v>
+        <v>34.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.249</v>
+        <v>15.25</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.818</v>
+        <v>13.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>16.319</v>
+        <v>16.32</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>22.242</v>
+        <v>22.24</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.283</v>
+        <v>62.28</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.072</v>
+        <v>10.07</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.521</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44807.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>32.33</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.43</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.77</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>29.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>21.52</v>
       </c>
     </row>
   </sheetData>
